--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AD817-B830-4F53-86A2-0170788ED37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3FEA8-6FB0-4FAF-B177-5278617FFDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="3120" windowWidth="38700" windowHeight="15345" xr2:uid="{A0221A25-BB2D-483C-A194-2898142340B9}"/>
+    <workbookView xWindow="9060" yWindow="690" windowWidth="38700" windowHeight="15345" xr2:uid="{A0221A25-BB2D-483C-A194-2898142340B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="20">
   <si>
     <t>matrix</t>
   </si>
@@ -84,18 +84,36 @@
   <si>
     <t xml:space="preserve">   </t>
   </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>guided</t>
+  </si>
+  <si>
+    <t>bin.search</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFECC48D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,7 +823,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1747,7 +1768,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2704,7 +2725,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3076,7 +3097,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3557,6 +3578,2932 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>paper: af_shell10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$59:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$60:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDF7-4235-85C6-350E12DEFDDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$59:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$61:$K$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDF7-4235-85C6-350E12DEFDDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$59:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$62:$K$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDF7-4235-85C6-350E12DEFDDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bin.search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$59:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$63:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDF7-4235-85C6-350E12DEFDDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1643974816"/>
+        <c:axId val="1643976480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1643974816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1643976480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1643976480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1643974816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>paper: HV15R</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$65:$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30DD-4CA6-8840-D60B9A5ADAEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$66:$K$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30DD-4CA6-8840-D60B9A5ADAEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$67:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30DD-4CA6-8840-D60B9A5ADAEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bin.search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$68:$K$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-30DD-4CA6-8840-D60B9A5ADAEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1263441024"/>
+        <c:axId val="1263436448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1263441024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1263436448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1263436448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1263441024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>paper: nlpkkt240</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$69:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$70:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BE8-42C8-88AC-362C29AF724F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$69:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$71:$K$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.1130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9340000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BE8-42C8-88AC-362C29AF724F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$69:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$72:$K$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.7109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8BE8-42C8-88AC-362C29AF724F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bin.search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$69:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$73:$K$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.7959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8BE8-42C8-88AC-362C29AF724F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1461909296"/>
+        <c:axId val="1461908048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1461909296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1461908048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1461908048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1461909296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>paper: road_usa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$74:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$75:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30E9-4522-BA52-7AB69D522E2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$74:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$76:$K$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.452</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3949999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30E9-4522-BA52-7AB69D522E2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$74:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$77:$K$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30E9-4522-BA52-7AB69D522E2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bin.search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$74:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$78:$K$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-30E9-4522-BA52-7AB69D522E2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1585843296"/>
+        <c:axId val="1585843712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1585843296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1585843712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1585843712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1585843296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3717,6 +6664,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5266,6 +8373,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5786,15 +10957,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>74544</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>160682</xdr:rowOff>
+      <xdr:colOff>399514</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>356153</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46382</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5821,16 +10992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>264287</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365138</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>136639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>547262</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>22339</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5857,16 +11028,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>569795</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75420</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>379294</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>153861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5893,16 +11064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>318807</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>173691</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419659</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>330014</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>105335</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5922,6 +11093,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>498662</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2ED8930-A132-434F-A97E-F1E886FE4843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>465043</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>146797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65963836-F5E4-4457-A9B0-8C08EE13EE83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>5602</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6135541-F7DD-49BA-B023-55B08E599955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>509867</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA84DCD0-3D90-442A-A248-9E0865501518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6227,10 +11542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B44D6B1-59CC-4BAD-98AA-A863EA03C6F2}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7067,11 +12382,536 @@
         <v>1.657</v>
       </c>
     </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>13</v>
+      </c>
       <c r="P38" t="s">
         <v>15</v>
       </c>
       <c r="Q38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>16</v>
+      </c>
+      <c r="J59">
+        <v>32</v>
+      </c>
+      <c r="K59">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="F60">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G60">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H60">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I60">
+        <v>0.02</v>
+      </c>
+      <c r="J60">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K60">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F61">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G61">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H61">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I61">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="J61">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="K61">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>0.25</v>
+      </c>
+      <c r="F62">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G62">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H62">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I62">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J62">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K62">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>0.25</v>
+      </c>
+      <c r="F63">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G63">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H63">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I63">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J63">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K63">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>16</v>
+      </c>
+      <c r="J64">
+        <v>32</v>
+      </c>
+      <c r="K64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>1.337</v>
+      </c>
+      <c r="F65">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G65">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="H65">
+        <v>0.19</v>
+      </c>
+      <c r="I65">
+        <v>0.111</v>
+      </c>
+      <c r="J65">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K65">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>1.363</v>
+      </c>
+      <c r="F66">
+        <v>1.111</v>
+      </c>
+      <c r="G66">
+        <v>0.74</v>
+      </c>
+      <c r="H66">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="I66">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J66">
+        <v>0.621</v>
+      </c>
+      <c r="K66">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>1.337</v>
+      </c>
+      <c r="F67">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="G67">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="H67">
+        <v>0.185</v>
+      </c>
+      <c r="I67">
+        <v>0.108</v>
+      </c>
+      <c r="J67">
+        <v>0.105</v>
+      </c>
+      <c r="K67">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>1.341</v>
+      </c>
+      <c r="F68">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H68">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I68">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J68">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K68">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>16</v>
+      </c>
+      <c r="J69">
+        <v>32</v>
+      </c>
+      <c r="K69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="F70">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="G70">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H70">
+        <v>0.59</v>
+      </c>
+      <c r="I70">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="J70">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="K70">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>4.1130000000000004</v>
+      </c>
+      <c r="F71">
+        <v>7.1849999999999996</v>
+      </c>
+      <c r="G71">
+        <v>9.625</v>
+      </c>
+      <c r="H71">
+        <v>9.0990000000000002</v>
+      </c>
+      <c r="I71">
+        <v>8.6920000000000002</v>
+      </c>
+      <c r="J71">
+        <v>8.266</v>
+      </c>
+      <c r="K71">
+        <v>6.9340000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>3.7109999999999999</v>
+      </c>
+      <c r="F72">
+        <v>1.893</v>
+      </c>
+      <c r="G72">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="H72">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I72">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J72">
+        <v>0.307</v>
+      </c>
+      <c r="K72">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73">
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="F73">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="G73">
+        <v>1.028</v>
+      </c>
+      <c r="H73">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="I73">
+        <v>0.221</v>
+      </c>
+      <c r="J73">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K73">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>16</v>
+      </c>
+      <c r="J74">
+        <v>32</v>
+      </c>
+      <c r="K74">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>0.71</v>
+      </c>
+      <c r="F75">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="G75">
+        <v>0.307</v>
+      </c>
+      <c r="H75">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="I75">
+        <v>0.154</v>
+      </c>
+      <c r="J75">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K75">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>1.456</v>
+      </c>
+      <c r="F76">
+        <v>3.988</v>
+      </c>
+      <c r="G76">
+        <v>4.7519999999999998</v>
+      </c>
+      <c r="H76">
+        <v>5.274</v>
+      </c>
+      <c r="I76">
+        <v>8.7690000000000001</v>
+      </c>
+      <c r="J76">
+        <v>11.452</v>
+      </c>
+      <c r="K76">
+        <v>7.3949999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F77">
+        <v>0.443</v>
+      </c>
+      <c r="G77">
+        <v>0.26</v>
+      </c>
+      <c r="H77">
+        <v>0.152</v>
+      </c>
+      <c r="I77">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J77">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K77">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F78">
+        <v>0.47</v>
+      </c>
+      <c r="G78">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H78">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I78">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="J78">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="K78">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q81" t="s">
         <v>13</v>
       </c>
     </row>
